--- a/trunk/Elec/2011/Balises IR/schematic/Tx_BOM.xlsx
+++ b/trunk/Elec/2011/Balises IR/schematic/Tx_BOM.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Ocore" localSheetId="0">Feuil1!$A$57:$G$101</definedName>
+    <definedName name="Ocore" localSheetId="0">Feuil1!$A$58:$G$102</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
   <si>
     <t>Comment</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>22u cap 1206 X5R 10V</t>
+  </si>
+  <si>
+    <t>Xbee/2</t>
+  </si>
+  <si>
+    <t>SMM-110-02-S-S</t>
   </si>
 </sst>
 </file>
@@ -466,7 +472,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,6 +518,22 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -529,7 +551,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -542,6 +564,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -728,17 +751,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A10:H48" totalsRowShown="0" headerRowDxfId="11" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10" dataCellStyle="Normal">
-  <autoFilter ref="A10:H48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A10:H49" totalsRowShown="0" headerRowDxfId="11" dataDxfId="2" headerRowBorderDxfId="9" tableBorderDxfId="10" dataCellStyle="Normal">
+  <autoFilter ref="A10:H49"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Comment" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Pattern" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Pattern" dataDxfId="1" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Quantity" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Components" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Ref farnell" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="PU (HT)" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Minimum de commande" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Prix (€ - HT)" dataDxfId="2" dataCellStyle="Normal">
+    <tableColumn id="4" name="Components" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Ref farnell" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="PU (HT)" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Minimum de commande" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Prix (€ - HT)" dataDxfId="3" dataCellStyle="Normal">
       <calculatedColumnFormula>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1031,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:L69"/>
+  <dimension ref="A4:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1108,7 +1131,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="45">
       <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
@@ -1118,7 +1141,7 @@
       <c r="C11" s="15">
         <v>26</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="24" t="s">
         <v>73</v>
       </c>
       <c r="E11" s="15">
@@ -1148,7 +1171,7 @@
       <c r="C12" s="15">
         <v>9</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="24" t="s">
         <v>74</v>
       </c>
       <c r="E12" s="15">
@@ -1178,7 +1201,7 @@
       <c r="C13" s="15">
         <v>1</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="24" t="s">
         <v>75</v>
       </c>
       <c r="E13" s="15">
@@ -1208,7 +1231,7 @@
       <c r="C14" s="15">
         <v>1</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E14" s="15">
@@ -1238,7 +1261,7 @@
       <c r="C15" s="15">
         <v>1</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="24" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="15">
@@ -1268,7 +1291,7 @@
       <c r="C16" s="15">
         <v>1</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="15">
@@ -1298,7 +1321,7 @@
       <c r="C17" s="15">
         <v>3</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="24" t="s">
         <v>77</v>
       </c>
       <c r="E17">
@@ -1328,7 +1351,7 @@
       <c r="C18" s="18">
         <v>1</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="24" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="15">
@@ -1358,7 +1381,7 @@
       <c r="C19" s="15">
         <v>4</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="24" t="s">
         <v>86</v>
       </c>
       <c r="E19" s="15">
@@ -1388,7 +1411,7 @@
       <c r="C20" s="15">
         <v>1</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="15">
@@ -1418,7 +1441,7 @@
       <c r="C21" s="17">
         <v>1</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="24" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="15">
@@ -1448,7 +1471,7 @@
       <c r="C22" s="17">
         <v>2</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="24" t="s">
         <v>85</v>
       </c>
       <c r="E22" s="15">
@@ -1478,7 +1501,7 @@
       <c r="C23" s="17">
         <v>32</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="24" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="15">
@@ -1508,7 +1531,7 @@
       <c r="C24" s="15">
         <v>2</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="26" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="15">
@@ -1538,7 +1561,7 @@
       <c r="C25" s="17">
         <v>1</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="27" t="s">
         <v>90</v>
       </c>
       <c r="E25" s="15">
@@ -1568,7 +1591,7 @@
       <c r="C26" s="15">
         <v>1</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="26" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="15"/>
@@ -1592,7 +1615,7 @@
       <c r="C27" s="17">
         <v>1</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="24" t="s">
         <v>92</v>
       </c>
       <c r="E27" s="15">
@@ -1622,7 +1645,7 @@
       <c r="C28" s="15">
         <v>1</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="25" t="s">
         <v>93</v>
       </c>
       <c r="E28" s="15">
@@ -1652,7 +1675,7 @@
       <c r="C29" s="15">
         <v>2</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="24" t="s">
         <v>94</v>
       </c>
       <c r="E29" s="15">
@@ -1682,7 +1705,7 @@
       <c r="C30" s="15">
         <v>4</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="24" t="s">
         <v>95</v>
       </c>
       <c r="E30" s="15">
@@ -1712,7 +1735,7 @@
       <c r="C31" s="15">
         <v>2</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="24" t="s">
         <v>96</v>
       </c>
       <c r="E31" s="15">
@@ -1742,7 +1765,7 @@
       <c r="C32" s="15">
         <v>1</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="25" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="15">
@@ -1772,7 +1795,7 @@
       <c r="C33" s="15">
         <v>1</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="15">
@@ -1802,7 +1825,7 @@
       <c r="C34" s="15">
         <v>1</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E34" s="15">
@@ -1832,7 +1855,7 @@
       <c r="C35" s="15">
         <v>1</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="25" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="15">
@@ -1862,7 +1885,7 @@
       <c r="C36" s="15">
         <v>2</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E36" s="15">
@@ -1892,7 +1915,7 @@
       <c r="C37" s="15">
         <v>1</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="25" t="s">
         <v>55</v>
       </c>
       <c r="E37" s="15">
@@ -1922,7 +1945,7 @@
       <c r="C38" s="15">
         <v>1</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E38" s="15">
@@ -1949,7 +1972,7 @@
       <c r="C39" s="15">
         <v>3</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="25" t="s">
         <v>97</v>
       </c>
       <c r="E39" s="15">
@@ -1976,7 +1999,7 @@
       <c r="C40" s="15">
         <v>1</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="25" t="s">
         <v>98</v>
       </c>
       <c r="E40" s="15">
@@ -2003,7 +2026,7 @@
       <c r="C41" s="17">
         <v>2</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="24" t="s">
         <v>100</v>
       </c>
       <c r="E41" s="15">
@@ -2030,7 +2053,7 @@
       <c r="C42" s="15">
         <v>1</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="15">
@@ -2047,179 +2070,206 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="15" t="s">
+    <row r="43" spans="1:12" ht="15" customHeight="1">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="17">
+        <v>2</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43">
+        <v>1668127</v>
+      </c>
+      <c r="F43" s="17">
+        <v>2.42</v>
+      </c>
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43" s="17">
+        <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B44" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="15">
-        <v>1</v>
-      </c>
-      <c r="D43" s="15" t="s">
+      <c r="C44" s="15">
+        <v>1</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E44" s="15">
         <v>1337913</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F44" s="15">
         <v>24.9</v>
       </c>
-      <c r="G43" s="15">
-        <v>1</v>
-      </c>
-      <c r="H43" s="15">
+      <c r="G44" s="15">
+        <v>1</v>
+      </c>
+      <c r="H44" s="15">
         <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
         <v>24.9</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="18" t="s">
+    <row r="45" spans="1:12">
+      <c r="A45" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B45" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C45" s="17">
         <v>2</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D45" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E45" s="15">
         <v>1607778</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="17">
         <v>0.38</v>
       </c>
-      <c r="G44" s="17">
-        <v>1</v>
-      </c>
-      <c r="H44" s="17">
+      <c r="G45" s="17">
+        <v>1</v>
+      </c>
+      <c r="H45" s="17">
         <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
         <v>0.76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="15">
-        <v>1</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="15">
-        <v>1675293</v>
-      </c>
-      <c r="F45" s="15">
-        <v>2.34</v>
-      </c>
-      <c r="G45" s="15">
-        <v>1</v>
-      </c>
-      <c r="H45" s="15">
-        <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
-        <v>2.34</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="15">
+        <v>1</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="15">
+        <v>1675293</v>
+      </c>
+      <c r="F46" s="15">
+        <v>2.34</v>
+      </c>
+      <c r="G46" s="15">
+        <v>1</v>
+      </c>
+      <c r="H46" s="15">
+        <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B47" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="15">
-        <v>1</v>
-      </c>
-      <c r="D46" s="15" t="s">
+      <c r="C47" s="15">
+        <v>1</v>
+      </c>
+      <c r="D47" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E47" s="15">
         <v>1103058</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F47" s="15">
         <v>2.94</v>
       </c>
-      <c r="G46" s="15">
-        <v>1</v>
-      </c>
-      <c r="H46" s="15">
+      <c r="G47" s="15">
+        <v>1</v>
+      </c>
+      <c r="H47" s="15">
         <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
         <v>2.94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="17">
-        <v>1</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="15">
-        <v>1008244</v>
-      </c>
-      <c r="F47" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="G47" s="17">
-        <v>1</v>
-      </c>
-      <c r="H47" s="17">
-        <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
-        <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="17">
+        <v>1</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="15">
+        <v>1008244</v>
+      </c>
+      <c r="F48" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="G48" s="17">
+        <v>1</v>
+      </c>
+      <c r="H48" s="17">
+        <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B49" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C49" s="17">
         <v>2</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D49" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E49" s="15">
         <v>1656116</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="17">
         <v>1.42</v>
       </c>
-      <c r="G48" s="17">
-        <v>1</v>
-      </c>
-      <c r="H48" s="17">
+      <c r="G49" s="17">
+        <v>1</v>
+      </c>
+      <c r="H49" s="17">
         <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
         <v>2.84</v>
       </c>
     </row>
-    <row r="49" spans="7:8">
-      <c r="G49" s="1" t="s">
+    <row r="50" spans="1:8">
+      <c r="G50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H50" s="3">
         <f>SUM(Tableau1[Prix (€ - HT)])</f>
-        <v>94.395000000000024</v>
-      </c>
-    </row>
-    <row r="69" spans="8:8">
-      <c r="H69" s="6"/>
+        <v>99.235000000000028</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8">
+      <c r="H70" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/trunk/Elec/2011/Balises IR/schematic/Tx_BOM.xlsx
+++ b/trunk/Elec/2011/Balises IR/schematic/Tx_BOM.xlsx
@@ -551,20 +551,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -613,6 +599,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -637,6 +624,26 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -655,13 +662,6 @@
         <bottom style="medium">
           <color theme="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -751,17 +751,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A10:H49" totalsRowShown="0" headerRowDxfId="11" dataDxfId="2" headerRowBorderDxfId="9" tableBorderDxfId="10" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A10:H49" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" dataCellStyle="Normal">
   <autoFilter ref="A10:H49"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Comment" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Pattern" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Quantity" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Components" dataDxfId="0" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Ref farnell" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="PU (HT)" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Minimum de commande" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Prix (€ - HT)" dataDxfId="3" dataCellStyle="Normal">
+    <tableColumn id="1" name="Comment" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Pattern" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Quantity" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Components" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Ref farnell" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="PU (HT)" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Minimum de commande" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Prix (€ - HT)" dataDxfId="0" dataCellStyle="Normal">
       <calculatedColumnFormula>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2159,7 +2159,7 @@
         <v>66</v>
       </c>
       <c r="C46" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>22</v>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="H46" s="15">
         <f>MAX(Tableau1[[#This Row],[Quantity]],Tableau1[[#This Row],[Minimum de commande]])*Tableau1[[#This Row],[PU (HT)]]</f>
-        <v>2.34</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="H50" s="3">
         <f>SUM(Tableau1[Prix (€ - HT)])</f>
-        <v>99.235000000000028</v>
+        <v>101.57500000000002</v>
       </c>
     </row>
     <row r="70" spans="8:8">
